--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R7dd781eb5ab3416c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Raaafb977762b4018"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R477f2d2b4f43432c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R598764e4800e4f78"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -281,6 +281,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8de4abc6efe74180"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0537478f2f384721"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Raaafb977762b4018"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Re33ca51152c848f9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R598764e4800e4f78"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf1052962c65b48db"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -281,6 +281,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0537478f2f384721"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd851f8e4fffb4f50"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Re33ca51152c848f9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R52af11a4d252404e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf1052962c65b48db"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6bb65aa22cf44808"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -281,6 +281,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd851f8e4fffb4f50"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6a1960c21f5d4bd8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R52af11a4d252404e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R1397dc640fc54c41"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6bb65aa22cf44808"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9d6b35b1abb549a9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -281,6 +281,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6a1960c21f5d4bd8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R98b3a776f8264d78"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R1397dc640fc54c41"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R165b5211a9c44013"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9d6b35b1abb549a9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R60ce77388e314b4a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -281,6 +281,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R98b3a776f8264d78"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbd9f15f42e304f85"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R165b5211a9c44013"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R53253a7929554c9a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R60ce77388e314b4a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc871b6e77a034d22"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -281,6 +281,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbd9f15f42e304f85"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2c06f8eee96e446b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R53253a7929554c9a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R2321b10f0c4f4613"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc871b6e77a034d22"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R405362879e2a4805"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -281,6 +281,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2c06f8eee96e446b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc436450042424f9b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R2321b10f0c4f4613"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R465d03e7ab94419c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R405362879e2a4805"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R96d49cd87c6b4f9a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -281,6 +281,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc436450042424f9b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0beb00b15895414d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R465d03e7ab94419c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R5bab26fd16a64928"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R96d49cd87c6b4f9a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5022c653ed25480f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -281,6 +281,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0beb00b15895414d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R04556b16dcfd4a9c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R5bab26fd16a64928"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R79c51eeb1edc479b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5022c653ed25480f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5c24ec2ea5b54a18"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -281,6 +281,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R04556b16dcfd4a9c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb0defa08ce7049a2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R79c51eeb1edc479b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R355e795950c54a0b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5c24ec2ea5b54a18"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdeccd59fa8aa4794"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -281,6 +281,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb0defa08ce7049a2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb1363c6085474b4c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R355e795950c54a0b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R79c97c8e22b149cb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdeccd59fa8aa4794"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re058f9c1bc584f65"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -281,6 +281,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb1363c6085474b4c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Reda46520d1514ca9"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/042_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R79c97c8e22b149cb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R42b806da35e04351"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re058f9c1bc584f65"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc62ea93cad6644f8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -281,6 +281,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Reda46520d1514ca9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R11cedfec74404d14"/>
 </x:worksheet>
 </file>